--- a/N17/man/timesheets/OverallTimesheet.xlsx
+++ b/N17/man/timesheets/OverallTimesheet.xlsx
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,14 +628,14 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
         <f>SUM(C5:O5)</f>
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">

--- a/N17/man/timesheets/OverallTimesheet.xlsx
+++ b/N17/man/timesheets/OverallTimesheet.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,6 @@
         <v>4</v>
       </c>
       <c r="P5">
-        <f>SUM(C5:O5)</f>
         <v>83</v>
       </c>
     </row>

--- a/N17/man/timesheets/OverallTimesheet.xlsx
+++ b/N17/man/timesheets/OverallTimesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +105,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,16 +135,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,429 +463,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
+        <f>SUM(C3:O3)</f>
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
         <v>10</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>34</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>7</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P11" si="0">SUM(C4:O4)</f>
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>36</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>1.5</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>6.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>84.5</v>
       </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
         <v>109.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>5.5</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>1.5</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
         <v>2.5</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>7</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>28</v>
       </c>
-      <c r="O8">
-        <v>11</v>
-      </c>
-      <c r="P8">
-        <v>74</v>
+      <c r="O8" s="1">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.5</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>1.5</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>34</v>
       </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>46</v>
+      <c r="O9" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>40.5</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>83</v>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/N17/man/timesheets/OverallTimesheet.xlsx
+++ b/N17/man/timesheets/OverallTimesheet.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="7680"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -172,6 +173,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="82016896"/>
+        <c:axId val="27599232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82016896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="27599232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27599232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82016896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9288843" cy="6053492"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,14 +849,14 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>84.5</v>
+        <v>66.5</v>
       </c>
       <c r="O6" s="1">
         <v>3</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>109.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">

--- a/N17/man/timesheets/OverallTimesheet.xlsx
+++ b/N17/man/timesheets/OverallTimesheet.xlsx
@@ -82,9 +82,6 @@
     <t>Dec 17-27 Jan</t>
   </si>
   <si>
-    <t>David (Meetings not included)</t>
-  </si>
-  <si>
     <t>Tux (Meetings not included)</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Oct 8-14</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -205,11 +205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82016896"/>
-        <c:axId val="27599232"/>
+        <c:axId val="93609984"/>
+        <c:axId val="93611520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82016896"/>
+        <c:axId val="93609984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,7 +218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27599232"/>
+        <c:crossAx val="93611520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -226,7 +226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27599232"/>
+        <c:axId val="93611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -236,14 +236,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82016896"/>
+        <c:crossAx val="93609984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -580,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -892,16 +891,20 @@
         <v>2.5</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -951,37 +954,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <v>34</v>
@@ -991,12 +994,12 @@
       </c>
       <c r="P9" s="1">
         <f t="shared" si="0"/>
-        <v>49.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -1023,7 +1026,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>

--- a/N17/man/timesheets/OverallTimesheet.xlsx
+++ b/N17/man/timesheets/OverallTimesheet.xlsx
@@ -205,11 +205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93609984"/>
-        <c:axId val="93611520"/>
+        <c:axId val="190468096"/>
+        <c:axId val="190469632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93609984"/>
+        <c:axId val="190468096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,7 +218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93611520"/>
+        <c:crossAx val="190469632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -226,7 +226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93611520"/>
+        <c:axId val="190469632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -236,7 +236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93609984"/>
+        <c:crossAx val="190468096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,19 +1009,37 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>58</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
